--- a/men_diaries/Diary 13.xlsx
+++ b/men_diaries/Diary 13.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t xml:space="preserve">(i) The motivations of females to use technology are more likely to be for what it helps them accomplish, whereas for males more likely to be for their interest and enjoyment of technology itself 
 </t>
@@ -174,13 +174,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -226,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -250,6 +253,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,11 +320,11 @@
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -327,13 +336,13 @@
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -345,11 +354,11 @@
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -361,13 +370,13 @@
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -379,11 +388,11 @@
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1"/>
@@ -397,11 +406,11 @@
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -413,11 +422,11 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -429,11 +438,11 @@
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -445,11 +454,11 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -461,13 +470,13 @@
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -479,11 +488,11 @@
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -495,11 +504,11 @@
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -511,11 +520,11 @@
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -527,11 +536,11 @@
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -543,11 +552,11 @@
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -559,11 +568,11 @@
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -575,11 +584,11 @@
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1"/>
@@ -593,11 +602,11 @@
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -609,11 +618,11 @@
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="1"/>
@@ -627,11 +636,11 @@
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -643,11 +652,11 @@
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -659,11 +668,11 @@
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -675,11 +684,11 @@
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -691,11 +700,11 @@
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -707,11 +716,11 @@
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -723,11 +732,11 @@
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -739,11 +748,11 @@
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -755,11 +764,13 @@
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -771,11 +782,11 @@
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -787,13 +798,13 @@
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
